--- a/data/Subset1_WithDialogActs/Ladder problem 7_Grade 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ladder problem 7_Grade 7.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
